--- a/CODE/data_test/Test_mono2.xlsx
+++ b/CODE/data_test/Test_mono2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbgan\OneDrive\Desktop\WORK\Aj_Woot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbgan\OneDrive\Desktop\WORK\Aj_Woot\CODE\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F756BC4D-A65E-4757-A8C4-D393C6F1A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BFE5F-2979-42E2-9C76-9657961CDC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29004776-18DE-466A-8025-2390A1832D06}"/>
   </bookViews>
@@ -2651,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F0A25E-BC79-46F4-BB6C-776B7465BF37}">
-  <dimension ref="A1:AC297"/>
+  <dimension ref="A1:AC299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F281" workbookViewId="0">
-      <selection activeCell="H295" sqref="H295"/>
+      <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -28191,14 +28191,20 @@
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F295" s="5">
-        <f>3.75/0.06</f>
-        <v>62.5</v>
+        <f>6/0.06</f>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F297" s="5">
         <f>3.6/0.06</f>
         <v>60.000000000000007</v>
+      </c>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F299" s="5">
+        <f>0.06^2</f>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
